--- a/artfynd/A 45810-2022.xlsx
+++ b/artfynd/A 45810-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68111407</v>
+        <v>68111399</v>
       </c>
       <c r="B2" t="n">
         <v>95519</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>718335.1836350473</v>
+        <v>718835.1437276035</v>
       </c>
       <c r="R2" t="n">
-        <v>7530330.049861717</v>
+        <v>7530231.537475289</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68111399</v>
+        <v>68111407</v>
       </c>
       <c r="B3" t="n">
         <v>95519</v>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>718835.1437276035</v>
+        <v>718335.1836350473</v>
       </c>
       <c r="R3" t="n">
-        <v>7530231.537475289</v>
+        <v>7530330.049861717</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 45810-2022.xlsx
+++ b/artfynd/A 45810-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68111399</v>
+        <v>68111407</v>
       </c>
       <c r="B2" t="n">
         <v>95519</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>718835.1437276035</v>
+        <v>718335.1836350473</v>
       </c>
       <c r="R2" t="n">
-        <v>7530231.537475289</v>
+        <v>7530330.049861717</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68111407</v>
+        <v>68111399</v>
       </c>
       <c r="B3" t="n">
         <v>95519</v>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>718335.1836350473</v>
+        <v>718835.1437276035</v>
       </c>
       <c r="R3" t="n">
-        <v>7530330.049861717</v>
+        <v>7530231.537475289</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
